--- a/final report/precisionRate_ann.xlsx
+++ b/final report/precisionRate_ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A973B-9F88-414F-8BED-9F78496B14D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F678E6-DC93-BE4D-AE83-850E8A19FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_ann" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,45 @@
     <sheet name="通訊" sheetId="5" r:id="rId5"/>
     <sheet name="總整理" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_ann!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_ann!$C$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_ann!$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +233,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -203,7 +241,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -211,7 +249,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -220,7 +258,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -229,7 +267,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -238,7 +276,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -246,7 +284,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -254,7 +292,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -262,7 +300,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -270,7 +308,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -279,7 +317,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -288,7 +326,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -296,7 +334,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -305,7 +343,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -313,7 +351,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -322,7 +360,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -331,7 +369,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -339,14 +377,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -354,7 +392,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -855,48 +893,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -911,8 +949,1606 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8E993F4-A5A7-6342-9191-8D7A47EB7FE5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B99F44DE-2DEC-7642-A3BA-685F225D91E3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C35B4FF-CE6C-8142-A8D4-C7D08BDE3D71}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B278DCB6-8572-EE41-A719-539CCCB4BBBA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{18F9E505-8FF4-9443-AA82-47EE41F4A737}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8E993F4-A5A7-6342-9191-8D7A47EB7FE5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B99F44DE-2DEC-7642-A3BA-685F225D91E3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C35B4FF-CE6C-8142-A8D4-C7D08BDE3D71}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B278DCB6-8572-EE41-A719-539CCCB4BBBA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{18F9E505-8FF4-9443-AA82-47EE41F4A737}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.60000000000000009"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2279366-C7D9-FDE2-88B6-8D1E44E89036}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="196850" y="9950450"/>
+              <a:ext cx="6419850" cy="3968750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368023</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114576</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE8EE22-C53B-0E49-BA2B-6E9E0C8CE728}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5395843" y="1543878"/>
+              <a:ext cx="6414880" cy="4057098"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1210,13 +2846,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:X47"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +2926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -1364,7 +3000,7 @@
         <v>0.12664572797228099</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -1438,7 +3074,7 @@
         <v>8.8073312643062396E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -1512,7 +3148,7 @@
         <v>0.140261124679252</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -1586,7 +3222,7 @@
         <v>6.2472094972924698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -1660,7 +3296,7 @@
         <v>0.10170395183009</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -1734,7 +3370,7 @@
         <v>0.13823291226689</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -1808,7 +3444,7 @@
         <v>7.7002861576775203E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -1882,7 +3518,7 @@
         <v>5.6929580602670997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -1956,7 +3592,7 @@
         <v>3.37407653414349E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -2030,7 +3666,7 @@
         <v>1.37862593477391E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -2104,7 +3740,7 @@
         <v>8.5342369481961305E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -2178,7 +3814,7 @@
         <v>2.4206094157723301E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -2252,7 +3888,7 @@
         <v>3.4024621474558502E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -2326,7 +3962,7 @@
         <v>3.6373544695029299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -2400,7 +4036,7 @@
         <v>8.6073796970042193E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -2474,7 +4110,7 @@
         <v>3.9686652424306697E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -2548,7 +4184,7 @@
         <v>6.9668223145639599E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -2622,7 +4258,7 @@
         <v>9.1280318394986903E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -2696,7 +4332,7 @@
         <v>8.7280145324039396E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -2770,7 +4406,7 @@
         <v>9.55652825606505E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -2844,7 +4480,7 @@
         <v>5.7304441519212698E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -2918,7 +4554,7 @@
         <v>6.8402462911898804E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -2992,7 +4628,7 @@
         <v>4.4504190914148298E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -3066,7 +4702,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -3140,7 +4776,7 @@
         <v>6.5961674596648701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -3214,7 +4850,7 @@
         <v>0.114547623844834</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -3288,7 +4924,7 @@
         <v>1.9813817902145599E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -3362,7 +4998,7 @@
         <v>2.05719525097161E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -3436,7 +5072,7 @@
         <v>9.3511916257105906E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -3510,7 +5146,7 @@
         <v>0.10873392363502001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -3584,7 +5220,7 @@
         <v>1.51800702885697E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -3658,7 +5294,7 @@
         <v>2.3034209481746701E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -3732,7 +5368,7 @@
         <v>0.102455830225683</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -3806,7 +5442,7 @@
         <v>5.62568495891363E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -3880,7 +5516,7 @@
         <v>3.4301388129692301E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -3954,7 +5590,7 @@
         <v>5.2710284081098298E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -4028,7 +5664,7 @@
         <v>1.7308156788292402E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -4102,7 +5738,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -4176,7 +5812,7 @@
         <v>0.10839953384056</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -4250,7 +5886,7 @@
         <v>9.2661381089181996E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -4347,7 +5983,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -4444,7 +6080,7 @@
         <v>3.4232196465908853E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4541,7 +6177,7 @@
         <v>6.7182068754273752E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -4638,7 +6274,7 @@
         <v>9.4025257832992051E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -4735,7 +6371,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -4835,6 +6471,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4846,9 +6483,9 @@
       <selection activeCell="A12" sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -4946,7 +6583,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_ann!A$31</f>
         <v>2330</v>
@@ -5044,7 +6681,7 @@
         <v>0.10873392363502001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_ann!A$12</f>
         <v>2454</v>
@@ -5142,7 +6779,7 @@
         <v>8.5342369481961305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_ann!A$28</f>
         <v>3034</v>
@@ -5240,7 +6877,7 @@
         <v>1.9813817902145599E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_ann!A$18</f>
         <v>2379</v>
@@ -5338,7 +6975,7 @@
         <v>6.9668223145639599E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_ann!A$25</f>
         <v>2408</v>
@@ -5436,7 +7073,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_ann!A$4</f>
         <v>2344</v>
@@ -5534,7 +7171,7 @@
         <v>0.140261124679252</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_ann!A$37</f>
         <v>2337</v>
@@ -5632,7 +7269,7 @@
         <v>5.2710284081098298E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_ann!A$35</f>
         <v>3035</v>
@@ -5730,7 +7367,7 @@
         <v>5.62568495891363E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_ann!A$5</f>
         <v>2449</v>
@@ -5828,7 +7465,7 @@
         <v>6.2472094972924698E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_ann!A$33</f>
         <v>2468</v>
@@ -5926,7 +7563,7 @@
         <v>2.3034209481746701E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -6023,7 +7660,7 @@
         <v>1.9813817902145599E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -6120,7 +7757,7 @@
         <v>5.3596925458107798E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6217,7 +7854,7 @@
         <v>6.6070159059282152E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -6314,7 +7951,7 @@
         <v>0.10288603509675533</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -6411,7 +8048,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -6522,9 +8159,9 @@
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -6622,7 +8259,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_ann!A$16</f>
         <v>1216</v>
@@ -6720,7 +8357,7 @@
         <v>8.6073796970042193E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_ann!A$36</f>
         <v>1229</v>
@@ -6818,7 +8455,7 @@
         <v>3.4301388129692301E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_ann!A$17</f>
         <v>1434</v>
@@ -6916,7 +8553,7 @@
         <v>3.9686652424306697E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_ann!A$30</f>
         <v>1227</v>
@@ -7014,7 +8651,7 @@
         <v>9.3511916257105906E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_ann!A$2</f>
         <v>1210</v>
@@ -7112,7 +8749,7 @@
         <v>0.12664572797228099</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_ann!A$10</f>
         <v>1232</v>
@@ -7210,7 +8847,7 @@
         <v>3.37407653414349E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_ann!A$9</f>
         <v>1215</v>
@@ -7308,7 +8945,7 @@
         <v>5.6929580602670997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_ann!A$3</f>
         <v>1231</v>
@@ -7406,7 +9043,7 @@
         <v>8.8073312643062396E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_ann!A$23</f>
         <v>1218</v>
@@ -7504,7 +9141,7 @@
         <v>6.8402462911898804E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_ann!A$24</f>
         <v>1702</v>
@@ -7602,7 +9239,7 @@
         <v>4.4504190914148298E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7699,7 +9336,7 @@
         <v>3.37407653414349E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -7796,7 +9433,7 @@
         <v>4.0891037046767095E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -7893,7 +9530,7 @@
         <v>6.2666021757284904E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -7990,7 +9627,7 @@
         <v>8.7573433724807345E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -8087,7 +9724,7 @@
         <v>0.12664572797228099</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -8198,9 +9835,9 @@
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -8298,7 +9935,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_ann!A$6</f>
         <v>2603</v>
@@ -8396,7 +10033,7 @@
         <v>0.10170395183009</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_ann!A$20</f>
         <v>2609</v>
@@ -8494,7 +10131,7 @@
         <v>8.7280145324039396E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_ann!A$34</f>
         <v>2615</v>
@@ -8592,7 +10229,7 @@
         <v>0.102455830225683</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_ann!A$40</f>
         <v>2618</v>
@@ -8690,7 +10327,7 @@
         <v>0.10839953384056</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_ann!A$27</f>
         <v>2610</v>
@@ -8788,7 +10425,7 @@
         <v>0.114547623844834</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_ann!A$21</f>
         <v>2637</v>
@@ -8886,7 +10523,7 @@
         <v>9.55652825606505E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_ann!A$7</f>
         <v>2633</v>
@@ -8984,7 +10621,7 @@
         <v>0.13823291226689</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_ann!A$26</f>
         <v>2459</v>
@@ -9082,7 +10719,7 @@
         <v>6.5961674596648701E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_ann!A$13</f>
         <v>2607</v>
@@ -9180,7 +10817,7 @@
         <v>2.4206094157723301E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_ann!A$14</f>
         <v>2634</v>
@@ -9278,7 +10915,7 @@
         <v>3.4024621474558502E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -9375,7 +11012,7 @@
         <v>2.4206094157723301E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -9472,7 +11109,7 @@
         <v>7.1291292278496371E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -9569,7 +11206,7 @@
         <v>9.8634617195370256E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -9666,7 +11303,7 @@
         <v>0.10691360793684075</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -9763,7 +11400,7 @@
         <v>0.13823291226689</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -9874,9 +11511,9 @@
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -9974,7 +11611,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_ann!A$32</f>
         <v>2412</v>
@@ -10072,7 +11709,7 @@
         <v>1.51800702885697E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_ann!A$41</f>
         <v>3045</v>
@@ -10170,7 +11807,7 @@
         <v>9.2661381089181996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_ann!A$22</f>
         <v>4904</v>
@@ -10268,7 +11905,7 @@
         <v>5.7304441519212698E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_ann!A$11</f>
         <v>2345</v>
@@ -10366,7 +12003,7 @@
         <v>1.37862593477391E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_ann!A$39</f>
         <v>2498</v>
@@ -10464,7 +12101,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_ann!A$8</f>
         <v>3596</v>
@@ -10562,7 +12199,7 @@
         <v>7.7002861576775203E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_ann!A$15</f>
         <v>3682</v>
@@ -10660,7 +12297,7 @@
         <v>3.6373544695029299E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_ann!A$29</f>
         <v>5388</v>
@@ -10758,7 +12395,7 @@
         <v>2.05719525097161E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_ann!A$19</f>
         <v>2455</v>
@@ -10856,7 +12493,7 @@
         <v>9.1280318394986903E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_ann!A$38</f>
         <v>2439</v>
@@ -10954,7 +12591,7 @@
         <v>1.7308156788292402E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -11051,7 +12688,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -11148,7 +12785,7 @@
         <v>1.5712091913500377E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -11245,7 +12882,7 @@
         <v>2.8472748602372699E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -11342,7 +12979,7 @@
         <v>7.2078256562384577E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -11439,7 +13076,7 @@
         <v>9.2661381089181996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -11546,13 +13183,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:O30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -11581,7 +13218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -11626,7 +13263,7 @@
         <v>0.58641036146755898</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -11678,7 +13315,7 @@
         <v>0.68057635593059629</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -11730,7 +13367,7 @@
         <v>0.70539422039080246</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -11782,7 +13419,7 @@
         <v>0.73953855524948198</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -11834,7 +13471,7 @@
         <v>0.78266634005791602</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -11846,7 +13483,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>32</v>
@@ -11864,7 +13501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -11889,7 +13526,7 @@
         <v>0.88920454545454497</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -11914,7 +13551,7 @@
         <v>0.88372093023255804</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -11939,7 +13576,7 @@
         <v>0.898954703832752</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -11964,7 +13601,7 @@
         <v>0.90178571428571397</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
@@ -11974,7 +13611,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
@@ -11992,7 +13629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -12017,7 +13654,7 @@
         <v>0.87812500000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -12042,7 +13679,7 @@
         <v>0.876582278481012</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -12067,7 +13704,7 @@
         <v>0.91642651296829902</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -12092,7 +13729,7 @@
         <v>0.90390390390390296</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
@@ -12102,7 +13739,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -12120,7 +13757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -12145,7 +13782,7 @@
         <v>0.90058479532163704</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -12170,7 +13807,7 @@
         <v>0.89361702127659504</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -12195,7 +13832,7 @@
         <v>0.90370370370370301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -12220,7 +13857,7 @@
         <v>0.88081395348837199</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
@@ -12230,7 +13867,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>32</v>
@@ -12248,7 +13885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -12273,7 +13910,7 @@
         <v>0.88972809667673702</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -12298,7 +13935,7 @@
         <v>0.87613293051359498</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -12323,7 +13960,7 @@
         <v>0.87915407854984895</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -12359,5 +13996,6 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/final report/precisionRate_ann.xlsx
+++ b/final report/precisionRate_ann.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F678E6-DC93-BE4D-AE83-850E8A19FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D16F837-2F87-514A-951B-E9F88BD0AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_ann" sheetId="1" r:id="rId1"/>
@@ -23,28 +23,100 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_ann!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_ann!$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_ann!$H$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_ann!$C$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_ann!$H$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">半導體!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">食品!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">食品!$I$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">航運!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">航運!$I$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">航運!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_ann!$C$1</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">航運!$I$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">precisionRate_ann!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1115,27 +1187,586 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{167F723D-2456-2544-AD3A-D2806948EDCD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2B6F7E7C-BDA0-514A-ADB1-CF117CD142C1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EAA6F7DB-1834-2D46-8894-1173CA21B64B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BBD1A5A6-9FAE-B64A-935F-CCAEAA9B736F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AC937B86-2249-0343-8A05-46142B8C9C22}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.49</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.53</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.55</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.57</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chart Title</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_食品</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E6269AEF-2A02-9340-B2B8-471C6AC57D5F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D9961F27-26CE-9E48-A857-7EC05D6BFC8E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4819568A-C9C3-D245-9FBF-6A768863640D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A724B8AB-5A40-8546-91BE-54E92FEEA70B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FC3DD5F7-03AB-1148-940C-6EE7C992A7E8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.59</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.61</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.63</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.65</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.67</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_航運</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DC4A2C26-53AF-5940-B3ED-F1B2E35BB2FD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CD6A9CCC-DF2B-214D-8EF2-420BC296BA00}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4A01142B-1E59-774F-9CE2-1877E1C8E18F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DD1D118F-D34B-B941-B756-A902A5E88BDA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{368DF2A0-05C1-6E47-BF77-D19666846A60}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.79</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.81</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.83</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.85</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.87</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN_通訊</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ANN_通訊</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8FF23374-C0FF-0846-B440-82B7904FF286}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DD0B24A7-B695-4E4C-BFD7-67E5BA4F8022}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{51FEBA92-5EEE-0A4D-A95A-34AC1DDF01C1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A338A1AC-0A3E-6546-A088-1D32B68AFE70}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{24D845A5-D337-AE43-A317-3C2AA6472AF0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.88</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.90</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.92</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.94</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.95</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1186,7 +1817,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B99F44DE-2DEC-7642-A3BA-685F225D91E3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.89</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1199,7 +1830,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5C35B4FF-CE6C-8142-A8D4-C7D08BDE3D71}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.91</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1212,7 +1843,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B278DCB6-8572-EE41-A719-539CCCB4BBBA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.93</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1351,6 +1982,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1867,6 +2658,2066 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2465,6 +5316,338 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D493583-3F90-1386-43AA-78437D9899A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4724400" y="3968750"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155AE0D8-FB6E-BA4B-A69E-A962EB261742}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4775200" y="4095750"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10384152-88F6-444E-9965-61AF69AEB09E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4622800" y="4337050"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AB9365-2128-3601-0C14-40DAEDA5FAD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4470400" y="4273550"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6480,7 +9663,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8148,6 +11331,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8156,7 +11340,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9824,6 +13008,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9832,7 +13017,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11500,6 +14685,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11507,8 +14693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13176,6 +16362,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13183,7 +16370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>

--- a/final report/precisionRate_ann.xlsx
+++ b/final report/precisionRate_ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D16F837-2F87-514A-951B-E9F88BD0AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C7296D-683F-4AEB-82D2-5AB6C1A3A23F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_ann" sheetId="1" r:id="rId1"/>
@@ -23,100 +23,64 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_ann!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$C$2:$C$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">食品!$G$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_ann!$G$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">航運!$G$2:$G$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">食品!$B$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$H$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_ann!$H$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">食品!$C$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">食品!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">食品!$G$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">食品!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">食品!$H$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">食品!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">食品!$I$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">食品!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">航運!$B$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_ann!$C$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_ann!$G$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_ann!$H$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">航運!$C$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">航運!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">航運!$G$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">航運!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">航運!$H$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">航運!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">航運!$I$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">航運!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">航運!$B$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">航運!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">航運!$C$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">航運!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">航運!$G$1</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">航運!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">航運!$H$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">航運!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">航運!$I$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">航運!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">通訊!$B$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">precisionRate_ann!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">precisionRate_ann!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">precisionRate_ann!$G$1</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">precisionRate_ann!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">precisionRate_ann!$H$1</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">precisionRate_ann!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">precisionRate_ann!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_ann!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_ann!$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,8 +90,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -305,7 +269,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -313,7 +277,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -321,7 +285,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -330,7 +294,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -339,7 +303,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -348,7 +312,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -356,7 +320,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -364,7 +328,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -372,7 +336,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -380,7 +344,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -389,7 +353,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -398,7 +362,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -406,7 +370,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -415,7 +379,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -423,7 +387,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -432,7 +396,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -441,7 +405,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -449,14 +413,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -464,7 +428,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -965,48 +929,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1021,32 +985,693 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>ANN</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82779456193353396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83648722878330095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8396342579877315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86431383319600774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88972809667673702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84290030211480305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84818731117824742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85519986940547255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.861027190332326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87613293051359498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83987915407854896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85316173188513578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85818551643683949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8699975532956038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87915407854984895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總整理!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>總整理!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>總整理!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79299847792998401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83918858255073947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85150919659500945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87295979691944947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89123867069486395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C00-42DF-8ACE-E34F0D6272E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391185088"/>
+        <c:axId val="390885440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391185088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390885440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390885440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391185088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1097,7 +1722,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B99F44DE-2DEC-7642-A3BA-685F225D91E3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1110,7 +1735,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5C35B4FF-CE6C-8142-A8D4-C7D08BDE3D71}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1123,7 +1748,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B278DCB6-8572-EE41-A719-539CCCB4BBBA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1148,11 +1773,11 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.300000012"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="0.95000000000000007" min="0.75000000000000011"/>
         <cx:majorGridlines/>
         <cx:majorTickMarks type="out"/>
         <cx:tickLabels/>
@@ -1187,27 +1812,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1245,7 +1870,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{167F723D-2456-2544-AD3A-D2806948EDCD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1258,7 +1883,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2B6F7E7C-BDA0-514A-ADB1-CF117CD142C1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1271,7 +1896,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EAA6F7DB-1834-2D46-8894-1173CA21B64B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1284,7 +1909,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BBD1A5A6-9FAE-B64A-935F-CCAEAA9B736F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1297,6 +1922,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AC937B86-2249-0343-8A05-46142B8C9C22}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1328,27 +1954,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1356,7 +1982,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Chart Title</cx:v>
+          <cx:v>ANN_食品</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1386,7 +2012,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E6269AEF-2A02-9340-B2B8-471C6AC57D5F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1399,7 +2025,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D9961F27-26CE-9E48-A857-7EC05D6BFC8E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1412,7 +2038,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4819568A-C9C3-D245-9FBF-6A768863640D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1425,7 +2051,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A724B8AB-5A40-8546-91BE-54E92FEEA70B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1438,6 +2064,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FC3DD5F7-03AB-1148-940C-6EE7C992A7E8}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1469,32 +2096,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.42</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ANN_航運</cx:v>
+        </cx:txData>
+      </cx:tx>
       <cx:txPr>
         <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -1522,7 +2154,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DC4A2C26-53AF-5940-B3ED-F1B2E35BB2FD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1535,7 +2167,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CD6A9CCC-DF2B-214D-8EF2-420BC296BA00}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1548,7 +2180,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4A01142B-1E59-774F-9CE2-1877E1C8E18F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1561,7 +2193,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DD1D118F-D34B-B941-B756-A902A5E88BDA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1574,6 +2206,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{368DF2A0-05C1-6E47-BF77-D19666846A60}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1605,27 +2238,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.85</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1663,7 +2296,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8FF23374-C0FF-0846-B440-82B7904FF286}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:f>_xlchart.v1.43</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1676,7 +2309,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DD0B24A7-B695-4E4C-BFD7-67E5BA4F8022}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1689,7 +2322,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{51FEBA92-5EEE-0A4D-A95A-34AC1DDF01C1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1702,7 +2335,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A338A1AC-0A3E-6546-A088-1D32B68AFE70}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:f>_xlchart.v1.49</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1715,6 +2348,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{24D845A5-D337-AE43-A317-3C2AA6472AF0}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1746,27 +2380,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.88</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.90</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.92</cx:f>
+        <cx:f>_xlchart.v1.56</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.94</cx:f>
+        <cx:f>_xlchart.v1.58</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.95</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1817,7 +2451,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B99F44DE-2DEC-7642-A3BA-685F225D91E3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.89</cx:f>
+              <cx:f>_xlchart.v1.53</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1830,7 +2464,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5C35B4FF-CE6C-8142-A8D4-C7D08BDE3D71}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.91</cx:f>
+              <cx:f>_xlchart.v1.55</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1843,7 +2477,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B278DCB6-8572-EE41-A719-539CCCB4BBBA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.93</cx:f>
+              <cx:f>_xlchart.v1.57</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2142,6 +2776,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -5232,20 +5906,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130176</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5281,8 +6471,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="196850" y="9950450"/>
-              <a:ext cx="6419850" cy="3968750"/>
+              <a:off x="7569201" y="10541000"/>
+              <a:ext cx="4946649" cy="4095750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5301,9 +6491,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5364,8 +6554,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4724400" y="3968750"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4746625" y="4089400"/>
+              <a:ext cx="4591050" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5384,9 +6574,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5447,8 +6637,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4775200" y="4095750"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4797425" y="4222750"/>
+              <a:ext cx="4591050" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5467,9 +6657,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5530,8 +6720,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4622800" y="4337050"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4641850" y="4470400"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5550,9 +6740,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5613,8 +6803,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4470400" y="4273550"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4489450" y="4406900"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5633,9 +6823,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5696,8 +6886,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5395843" y="1543878"/>
-              <a:ext cx="6414880" cy="4057098"/>
+              <a:off x="5421243" y="1588328"/>
+              <a:ext cx="6443455" cy="4184098"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5716,9 +6906,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5727,11 +6917,47 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>162340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825E4FA3-1F88-4B88-81D2-19EBDB97B95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6029,13 +7255,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6109,7 +7335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -6183,7 +7409,7 @@
         <v>0.12664572797228099</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -6257,7 +7483,7 @@
         <v>8.8073312643062396E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -6331,7 +7557,7 @@
         <v>0.140261124679252</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -6405,7 +7631,7 @@
         <v>6.2472094972924698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -6479,7 +7705,7 @@
         <v>0.10170395183009</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -6553,7 +7779,7 @@
         <v>0.13823291226689</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -6627,7 +7853,7 @@
         <v>7.7002861576775203E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -6701,7 +7927,7 @@
         <v>5.6929580602670997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -6775,7 +8001,7 @@
         <v>3.37407653414349E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -6849,7 +8075,7 @@
         <v>1.37862593477391E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -6923,7 +8149,7 @@
         <v>8.5342369481961305E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -6997,7 +8223,7 @@
         <v>2.4206094157723301E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -7071,7 +8297,7 @@
         <v>3.4024621474558502E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -7145,7 +8371,7 @@
         <v>3.6373544695029299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -7219,7 +8445,7 @@
         <v>8.6073796970042193E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -7293,7 +8519,7 @@
         <v>3.9686652424306697E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -7367,7 +8593,7 @@
         <v>6.9668223145639599E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -7441,7 +8667,7 @@
         <v>9.1280318394986903E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -7515,7 +8741,7 @@
         <v>8.7280145324039396E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -7589,7 +8815,7 @@
         <v>9.55652825606505E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -7663,7 +8889,7 @@
         <v>5.7304441519212698E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -7737,7 +8963,7 @@
         <v>6.8402462911898804E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -7811,7 +9037,7 @@
         <v>4.4504190914148298E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -7885,7 +9111,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -7959,7 +9185,7 @@
         <v>6.5961674596648701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -8033,7 +9259,7 @@
         <v>0.114547623844834</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -8107,7 +9333,7 @@
         <v>1.9813817902145599E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -8181,7 +9407,7 @@
         <v>2.05719525097161E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -8255,7 +9481,7 @@
         <v>9.3511916257105906E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -8329,7 +9555,7 @@
         <v>0.10873392363502001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -8403,7 +9629,7 @@
         <v>1.51800702885697E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -8477,7 +9703,7 @@
         <v>2.3034209481746701E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -8551,7 +9777,7 @@
         <v>0.102455830225683</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -8625,7 +9851,7 @@
         <v>5.62568495891363E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -8699,7 +9925,7 @@
         <v>3.4301388129692301E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -8773,7 +9999,7 @@
         <v>5.2710284081098298E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -8847,7 +10073,7 @@
         <v>1.7308156788292402E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -8921,7 +10147,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -8995,7 +10221,7 @@
         <v>0.10839953384056</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -9069,7 +10295,7 @@
         <v>9.2661381089181996E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -9166,7 +10392,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -9263,7 +10489,7 @@
         <v>3.4232196465908853E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -9360,7 +10586,7 @@
         <v>6.7182068754273752E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -9457,7 +10683,7 @@
         <v>9.4025257832992051E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -9554,7 +10780,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -9654,7 +10880,8 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9666,9 +10893,9 @@
       <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -9766,7 +10993,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_ann!A$31</f>
         <v>2330</v>
@@ -9864,7 +11091,7 @@
         <v>0.10873392363502001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_ann!A$12</f>
         <v>2454</v>
@@ -9962,7 +11189,7 @@
         <v>8.5342369481961305E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_ann!A$28</f>
         <v>3034</v>
@@ -10060,7 +11287,7 @@
         <v>1.9813817902145599E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_ann!A$18</f>
         <v>2379</v>
@@ -10158,7 +11385,7 @@
         <v>6.9668223145639599E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_ann!A$25</f>
         <v>2408</v>
@@ -10256,7 +11483,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_ann!A$4</f>
         <v>2344</v>
@@ -10354,7 +11581,7 @@
         <v>0.140261124679252</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_ann!A$37</f>
         <v>2337</v>
@@ -10452,7 +11679,7 @@
         <v>5.2710284081098298E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_ann!A$35</f>
         <v>3035</v>
@@ -10550,7 +11777,7 @@
         <v>5.62568495891363E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_ann!A$5</f>
         <v>2449</v>
@@ -10648,7 +11875,7 @@
         <v>6.2472094972924698E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_ann!A$33</f>
         <v>2468</v>
@@ -10746,7 +11973,7 @@
         <v>2.3034209481746701E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -10843,7 +12070,7 @@
         <v>1.9813817902145599E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -10940,7 +12167,7 @@
         <v>5.3596925458107798E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -11037,7 +12264,7 @@
         <v>6.6070159059282152E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -11134,7 +12361,7 @@
         <v>0.10288603509675533</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -11231,7 +12458,7 @@
         <v>0.190608168225855</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -11343,9 +12570,9 @@
       <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -11443,7 +12670,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_ann!A$16</f>
         <v>1216</v>
@@ -11541,7 +12768,7 @@
         <v>8.6073796970042193E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_ann!A$36</f>
         <v>1229</v>
@@ -11639,7 +12866,7 @@
         <v>3.4301388129692301E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_ann!A$17</f>
         <v>1434</v>
@@ -11737,7 +12964,7 @@
         <v>3.9686652424306697E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_ann!A$30</f>
         <v>1227</v>
@@ -11835,7 +13062,7 @@
         <v>9.3511916257105906E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_ann!A$2</f>
         <v>1210</v>
@@ -11933,7 +13160,7 @@
         <v>0.12664572797228099</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_ann!A$10</f>
         <v>1232</v>
@@ -12031,7 +13258,7 @@
         <v>3.37407653414349E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_ann!A$9</f>
         <v>1215</v>
@@ -12129,7 +13356,7 @@
         <v>5.6929580602670997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_ann!A$3</f>
         <v>1231</v>
@@ -12227,7 +13454,7 @@
         <v>8.8073312643062396E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_ann!A$23</f>
         <v>1218</v>
@@ -12325,7 +13552,7 @@
         <v>6.8402462911898804E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_ann!A$24</f>
         <v>1702</v>
@@ -12423,7 +13650,7 @@
         <v>4.4504190914148298E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -12520,7 +13747,7 @@
         <v>3.37407653414349E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -12617,7 +13844,7 @@
         <v>4.0891037046767095E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -12714,7 +13941,7 @@
         <v>6.2666021757284904E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -12811,7 +14038,7 @@
         <v>8.7573433724807345E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -12908,7 +14135,7 @@
         <v>0.12664572797228099</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -13020,9 +14247,9 @@
       <selection activeCell="I1" activeCellId="5" sqref="J30 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -13120,7 +14347,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_ann!A$6</f>
         <v>2603</v>
@@ -13218,7 +14445,7 @@
         <v>0.10170395183009</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_ann!A$20</f>
         <v>2609</v>
@@ -13316,7 +14543,7 @@
         <v>8.7280145324039396E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_ann!A$34</f>
         <v>2615</v>
@@ -13414,7 +14641,7 @@
         <v>0.102455830225683</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_ann!A$40</f>
         <v>2618</v>
@@ -13512,7 +14739,7 @@
         <v>0.10839953384056</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_ann!A$27</f>
         <v>2610</v>
@@ -13610,7 +14837,7 @@
         <v>0.114547623844834</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_ann!A$21</f>
         <v>2637</v>
@@ -13708,7 +14935,7 @@
         <v>9.55652825606505E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_ann!A$7</f>
         <v>2633</v>
@@ -13806,7 +15033,7 @@
         <v>0.13823291226689</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_ann!A$26</f>
         <v>2459</v>
@@ -13904,7 +15131,7 @@
         <v>6.5961674596648701E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_ann!A$13</f>
         <v>2607</v>
@@ -14002,7 +15229,7 @@
         <v>2.4206094157723301E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_ann!A$14</f>
         <v>2634</v>
@@ -14100,7 +15327,7 @@
         <v>3.4024621474558502E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -14197,7 +15424,7 @@
         <v>2.4206094157723301E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -14294,7 +15521,7 @@
         <v>7.1291292278496371E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -14391,7 +15618,7 @@
         <v>9.8634617195370256E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -14488,7 +15715,7 @@
         <v>0.10691360793684075</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -14585,7 +15812,7 @@
         <v>0.13823291226689</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -14693,13 +15920,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_ann!A$1</f>
         <v>StockName</v>
@@ -14797,7 +16024,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_ann!A$32</f>
         <v>2412</v>
@@ -14895,7 +16122,7 @@
         <v>1.51800702885697E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_ann!A$41</f>
         <v>3045</v>
@@ -14993,7 +16220,7 @@
         <v>9.2661381089181996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_ann!A$22</f>
         <v>4904</v>
@@ -15091,7 +16318,7 @@
         <v>5.7304441519212698E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_ann!A$11</f>
         <v>2345</v>
@@ -15189,7 +16416,7 @@
         <v>1.37862593477391E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_ann!A$39</f>
         <v>2498</v>
@@ -15287,7 +16514,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_ann!A$8</f>
         <v>3596</v>
@@ -15385,7 +16612,7 @@
         <v>7.7002861576775203E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_ann!A$15</f>
         <v>3682</v>
@@ -15483,7 +16710,7 @@
         <v>3.6373544695029299E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_ann!A$29</f>
         <v>5388</v>
@@ -15581,7 +16808,7 @@
         <v>2.05719525097161E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_ann!A$19</f>
         <v>2455</v>
@@ -15679,7 +16906,7 @@
         <v>9.1280318394986903E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_ann!A$38</f>
         <v>2439</v>
@@ -15777,7 +17004,7 @@
         <v>1.7308156788292402E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -15874,7 +17101,7 @@
         <v>1.2805828467049399E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -15971,7 +17198,7 @@
         <v>1.5712091913500377E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -16068,7 +17295,7 @@
         <v>2.8472748602372699E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -16165,7 +17392,7 @@
         <v>7.2078256562384577E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -16262,7 +17489,7 @@
         <v>9.2661381089181996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -16370,13 +17597,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -16405,7 +17632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16450,7 +17677,7 @@
         <v>0.58641036146755898</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -16502,7 +17729,7 @@
         <v>0.68057635593059629</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -16554,7 +17781,7 @@
         <v>0.70539422039080246</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -16606,7 +17833,7 @@
         <v>0.73953855524948198</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -16658,7 +17885,7 @@
         <v>0.78266634005791602</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -16670,7 +17897,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>32</v>
@@ -16688,7 +17915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -16713,7 +17940,7 @@
         <v>0.88920454545454497</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -16738,7 +17965,7 @@
         <v>0.88372093023255804</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -16763,7 +17990,7 @@
         <v>0.898954703832752</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -16788,7 +18015,7 @@
         <v>0.90178571428571397</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
@@ -16798,7 +18025,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
@@ -16816,7 +18043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -16841,7 +18068,7 @@
         <v>0.87812500000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -16866,7 +18093,7 @@
         <v>0.876582278481012</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -16891,7 +18118,7 @@
         <v>0.91642651296829902</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -16916,7 +18143,7 @@
         <v>0.90390390390390296</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
@@ -16926,7 +18153,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -16944,7 +18171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -16969,7 +18196,7 @@
         <v>0.90058479532163704</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -16994,7 +18221,7 @@
         <v>0.89361702127659504</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -17019,7 +18246,7 @@
         <v>0.90370370370370301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -17044,7 +18271,7 @@
         <v>0.88081395348837199</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
@@ -17054,7 +18281,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>32</v>
@@ -17072,7 +18299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -17097,7 +18324,7 @@
         <v>0.88972809667673702</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -17122,7 +18349,7 @@
         <v>0.87613293051359498</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -17147,7 +18374,7 @@
         <v>0.87915407854984895</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
